--- a/Work_List.xlsx
+++ b/Work_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uxidesign\Desktop\작업\레파토리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906C12AD-AA27-4E76-BA16-9F0197F4402B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EFC30E-3131-4EA0-8084-F56DF4C05B98}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>순번</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -131,6 +131,42 @@
   <si>
     <t>$product_skin 변수에 본품에 대한 스킨정보 대입
 foreach 문으로 유저정보와 본품정보를 비교해 높은 데이터로 스킨데이터 변경</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>back</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>api-rest/basket/index.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>basket restful-api 생성 및 파일업로드구현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wiz_basket 테이블에 photo 필드추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문목록에서 옵션 옆에 다운로드 링크생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>adm/manage/product/order_info.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>옵션정보 가져올때 photo추가
+데이터안에 optionurl 추가
+옵션이름 span태그안에 a태그 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트폼은 test.php로 진행
+post로 값이 왔을때 옵션 idx값으로 파일이름정해주고
+adm/data/basket 폴더에 저장</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -583,7 +619,7 @@
   <dimension ref="A2:H103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -779,41 +815,81 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
+      <c r="B10" s="8">
+        <v>43727</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="8">
+        <v>43727</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="B11" s="8">
+        <v>43727</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="8">
+        <v>43727</v>
+      </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="B12" s="8">
+        <v>43727</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="8">
+        <v>43727</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3">

--- a/Work_List.xlsx
+++ b/Work_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uxidesign\Desktop\작업\레파토리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EFC30E-3131-4EA0-8084-F56DF4C05B98}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39678BDD-CAA8-4FD5-844E-D90B326ADA00}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
   <si>
     <t>순번</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -167,6 +167,127 @@
     <t>테스트폼은 test.php로 진행
 post로 값이 왔을때 옵션 idx값으로 파일이름정해주고
 adm/data/basket 폴더에 저장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>manage 페이지 상품등록-&gt;상품옵션에서 스킨옵션 부분뷰 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>th  스킨옵션 추가
+컴포넌트 임포트 추가
+input hidden 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>adm/manage/produt/prd_input.php
+component/adm/show/product/option/skin-option 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>component/client/shop/produvt/option/skin-option.php 생성
+amd/product/prd_view.php(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>client 상품 뷰 스킨옵션 생성 및 옵션당 하나만 선택되게</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) 컴포넌트 skin-option 임포트
+(1) $product skin_subjects 필드 갖고오는거 추가
+(1) skin-option 컴포넌트 태그추가
+(1) onChenge2 메소드 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>간편로그인( 네이버, 페이스북, 카카오)</t>
+  </si>
+  <si>
+    <t>component/naver 폴더생성
+component/naver/login 폴더생성
+component/naver/login/naver-login.php 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>옵션이없는 물품을샀는데 옵션선택하라고 알럿뜨는거 수정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>amd/product/prd_view.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buy함수에 있던 if조건문 한번더 감쌈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>옵션 본품,스킨옵션 수식 적용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>amd/product/prd_view.php
+component/client/shop/product/product-view-chart.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자기데이터와 본품 데이터가 95 이상일시 옵션선택 불가능하게</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>component/client/shop/product/option/skin-option.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>toString 메소드 생성
+v-bind:disavled 조건추가
+3항문에 3항문추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별추가, "제 삼의 성" 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>adm/member/skin/memberBasic/join_input_normal.php (1)
+adm/member/join_save.php (2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) html 라디오 버튼 추가
+wiz_user 테이블에 gender 필드추가
+(2) 인서트 부분에 gender 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>피부타입 4가지 칼라(백인종, 흑인종, 황인종, 라틴계) – 칼라로 선택되어 짐</t>
+  </si>
+  <si>
+    <t>adm 홈페이지에서 환경설정 회원관리 추가항목 에서 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 폼 = 아이디,페스워드, 이메일, 이름, 국적, 주소, 성별, 피부색(피부타입),전화번호, 본인인증, 생년월일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) html 텍스트 추가
+wiz_user 테이블에 country 필드추가
+(2) 인서트 부분에 country 추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">회원가입 메일인증 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>adm 홈페이지 환경설정 인증관리 email인증관리 on
+adm/member/join_input.php (1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) 인증번호 보내기 이벤트 생성 create_authcode()
+(1) 인증번호 체크 이벤트 생성 check_authcode()</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -618,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -627,8 +748,8 @@
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="11.125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="69.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="102.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.5" style="4" customWidth="1"/>
     <col min="6" max="6" width="9" style="4"/>
     <col min="7" max="7" width="11.125" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="82.5" style="4" customWidth="1"/>
@@ -891,125 +1012,251 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="8">
+        <v>43731</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="8">
+        <v>43731</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="B14" s="8">
+        <v>43731</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="8">
+        <v>43732</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="10">
+        <v>43732</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="8">
+        <v>43732</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>13</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="B16" s="8">
+        <v>43732</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>14</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="B17" s="8">
+        <v>43732</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="8">
+        <v>43732</v>
+      </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>15</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="8">
+        <v>43732</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="8">
+        <v>43732</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>16</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="B19" s="8">
+        <v>43732</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="H19" s="9" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>17</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="B20" s="8">
+        <v>43732</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="8">
+        <v>43732</v>
+      </c>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>18</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="8">
+        <v>43732</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="8">
+        <v>43732</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>19</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="B22" s="8">
+        <v>43732</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="8">
+        <v>43732</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="3">

--- a/Work_List.xlsx
+++ b/Work_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uxidesign\Desktop\작업\레파토리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39678BDD-CAA8-4FD5-844E-D90B326ADA00}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289C5951-8F7A-4042-9232-0370F3E838C5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="71">
   <si>
     <t>순번</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -288,6 +288,59 @@
   <si>
     <t>(1) 인증번호 보내기 이벤트 생성 create_authcode()
 (1) 인증번호 체크 이벤트 생성 check_authcode()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14세 이하 회원가입 막기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>adm/member/join_input.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>joinCheck 함수안에 조건문추가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 연동 및 이미지 연동 개발</t>
+  </si>
+  <si>
+    <t>wiz_basket_tmp 테이블에 photo 필드 추가
+adm/product/prd_save
+amd/product/inc/basket_ajax.php
+adm/product/order_save.php</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert 할때 photo 추가
+조팀장님한태 검수받아야할듯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문확인 메일, 송장번호 발송 메일 기능 개발</t>
+  </si>
+  <si>
+    <t>wiz_order 테이블에 deliver_mail_check 필드생성
+adm/manage/product/order_info.php (1)
+adm/manage/product/order_save.php (2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) 운송장번호 옆에 라디오 버튼 생성
+(2) mode == update 구문에 deliver_mail_check 추가
+(2) 운송장텍스트가 안비여있고 보낸다 체크되있으면 메일발솔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>단품 - 추가 옵션이 있어야 함</t>
+  </si>
+  <si>
+    <t>adm/manage/product/prd_input.php (1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) tr 상품타입 추가 라디오버튼두개추가</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -739,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1262,49 +1315,93 @@
       <c r="A23" s="3">
         <v>20</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="8">
+        <v>43733</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="8">
+        <v>43732</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>21</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="B24" s="8">
+        <v>43733</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H24" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>22</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="B25" s="8">
+        <v>43733</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
+      <c r="H25" s="9" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>23</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="B26" s="8">
+        <v>43733</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="H26" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
